--- a/python_basic/02.정적페이지크롤링/RISS_deeplearning_abstract.xlsx
+++ b/python_basic/02.정적페이지크롤링/RISS_deeplearning_abstract.xlsx
@@ -247,7 +247,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +261,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -270,7 +276,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -299,13 +312,13 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -632,7 +645,7 @@
     <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="36.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="53.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -685,7 +698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -763,7 +776,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -789,7 +802,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
